--- a/nfl_data/NFL Week Dates.xlsx
+++ b/nfl_data/NFL Week Dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/daecdc5240f7951f/Podcasting/Fantasy Sidelines/Injury Data Python/Data_Collect_Clean/nfl_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{7741759C-B48C-4083-A1B6-EFE247105951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{57B0C267-7A35-4A7D-B57B-74D2F5FA7144}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{7741759C-B48C-4083-A1B6-EFE247105951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A7A69792-3A5A-4A68-91DA-16E3E5419FF7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{23FB6D38-656B-4999-8C48-94DBCBF90CCE}"/>
   </bookViews>
@@ -395,9 +395,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1BF0FB-BC1C-4560-81C5-E303F0F90DA2}">
-  <dimension ref="A1:B171"/>
+  <dimension ref="A1:B188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="F167" sqref="F167"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1933,6 +1935,158 @@
         <v>17</v>
       </c>
     </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>44448</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <f t="shared" ref="A173:A188" si="8">A172+7</f>
+        <v>44455</v>
+      </c>
+      <c r="B173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <f t="shared" si="8"/>
+        <v>44462</v>
+      </c>
+      <c r="B174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <f t="shared" si="8"/>
+        <v>44469</v>
+      </c>
+      <c r="B175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <f t="shared" si="8"/>
+        <v>44476</v>
+      </c>
+      <c r="B176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <f t="shared" si="8"/>
+        <v>44483</v>
+      </c>
+      <c r="B177">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <f t="shared" si="8"/>
+        <v>44490</v>
+      </c>
+      <c r="B178">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <f t="shared" si="8"/>
+        <v>44497</v>
+      </c>
+      <c r="B179">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <f t="shared" si="8"/>
+        <v>44504</v>
+      </c>
+      <c r="B180">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <f t="shared" si="8"/>
+        <v>44511</v>
+      </c>
+      <c r="B181">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <f t="shared" si="8"/>
+        <v>44518</v>
+      </c>
+      <c r="B182">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <f t="shared" si="8"/>
+        <v>44525</v>
+      </c>
+      <c r="B183">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <f t="shared" si="8"/>
+        <v>44532</v>
+      </c>
+      <c r="B184">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <f t="shared" si="8"/>
+        <v>44539</v>
+      </c>
+      <c r="B185">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <f t="shared" si="8"/>
+        <v>44546</v>
+      </c>
+      <c r="B186">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <f t="shared" si="8"/>
+        <v>44553</v>
+      </c>
+      <c r="B187">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <f t="shared" si="8"/>
+        <v>44560</v>
+      </c>
+      <c r="B188">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nfl_data/NFL Week Dates.xlsx
+++ b/nfl_data/NFL Week Dates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/daecdc5240f7951f/Podcasting/Fantasy Sidelines/Injury Data Python/Data_Collect_Clean/nfl_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{7741759C-B48C-4083-A1B6-EFE247105951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A7A69792-3A5A-4A68-91DA-16E3E5419FF7}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{7741759C-B48C-4083-A1B6-EFE247105951}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8D682130-0158-49B1-B9AC-4A2DC227C770}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{23FB6D38-656B-4999-8C48-94DBCBF90CCE}"/>
   </bookViews>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1BF0FB-BC1C-4560-81C5-E303F0F90DA2}">
-  <dimension ref="A1:B188"/>
+  <dimension ref="A1:B189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="F167" sqref="F167"/>
+      <selection activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <f t="shared" ref="A173:A188" si="8">A172+7</f>
+        <f t="shared" ref="A173:A189" si="8">A172+7</f>
         <v>44455</v>
       </c>
       <c r="B173">
@@ -2087,6 +2087,15 @@
         <v>17</v>
       </c>
     </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <f t="shared" si="8"/>
+        <v>44567</v>
+      </c>
+      <c r="B189">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
